--- a/internalContent/DETraining/DXCUForms/DXC_Bulk_Course_Request_Template.xlsx
+++ b/internalContent/DETraining/DXCUForms/DXC_Bulk_Course_Request_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DXCWork\OneDrive - DXC Production\Projects\DXC\Digital Explorer\gitRepo\Digital-Explorer-Specs\internalContent\DETraining\DXCUForms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dxcportal-my.sharepoint.com/personal/davidstevens_dxc_com/Documents/Projects/DXC/Digital Explorer/gitRepo/Digital-Explorer-Specs/internalContent/DETraining/DXCUForms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_401977FDFB9FF7A0C4DFF8A3CCE22CD4D087197B" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{13A6B3AA-2268-4E90-8153-761436B768A2}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_401977FDFB9FF7A0C4DFF8A3CCE22CD4D087197B" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{F1462BAB-C33F-4E06-984B-914DC982401A}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="578" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -867,7 +867,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="401">
   <si>
     <t>Bulk Course Creation and Update Form</t>
   </si>
@@ -2162,9 +2162,6 @@
     <t>(00:10)</t>
   </si>
   <si>
-    <t>https://dxc.mediaplatform.com/#!/video/3802/DXC+Digital+Explorer+-+Understanding+your+clients+digital+challenges+with+DXC+Digital+Explorer</t>
-  </si>
-  <si>
     <t>Create a client summary report using the DXC Digital Explorer Playbook module</t>
   </si>
   <si>
@@ -2214,6 +2211,15 @@
   </si>
   <si>
     <t>https://dxc.mediaplatform.com/#!/video/3801/DXC+Digital+Explorer+-+Trends+Module</t>
+  </si>
+  <si>
+    <t>https://dxc.mediaplatform.com/#!/video/3814/DXC+Digital+Explorer+-+Understanding+your+clients+digital+challenges+with+DXC+Digital+Explorer</t>
+  </si>
+  <si>
+    <t>https://dxc.mediaplatform.com/#!/video/3831/Presenting+DXC's+Digital+Viewpoint+with+Digital+Explorer</t>
+  </si>
+  <si>
+    <t>(00:03)</t>
   </si>
 </sst>
 </file>
@@ -3057,6 +3063,9 @@
     <xf numFmtId="15" fontId="36" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3074,9 +3083,6 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="10" xfId="42" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -3464,8 +3470,8 @@
   <dimension ref="A1:XFD215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="15" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="15" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3507,12 +3513,12 @@
       <c r="B1" s="34" t="s">
         <v>327</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="40" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
       <c r="H1" s="2"/>
       <c r="S1" s="3"/>
     </row>
@@ -3520,12 +3526,12 @@
       <c r="B2" s="35">
         <v>43476</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="H2" s="2"/>
       <c r="S2" s="3"/>
     </row>
@@ -3537,12 +3543,12 @@
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="1:16384" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
       <c r="H4" s="2"/>
       <c r="S4" s="3"/>
     </row>
@@ -3593,22 +3599,22 @@
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
       <c r="H12" s="2"/>
       <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
       <c r="H13" s="2"/>
       <c r="S13" s="3"/>
     </row>
@@ -3616,14 +3622,14 @@
       <c r="D14" s="8"/>
       <c r="H14" s="2"/>
       <c r="S14" s="3"/>
-      <c r="X14" s="36" t="s">
+      <c r="X14" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="38"/>
+      <c r="Y14" s="38"/>
+      <c r="Z14" s="38"/>
+      <c r="AA14" s="38"/>
+      <c r="AB14" s="38"/>
+      <c r="AC14" s="39"/>
     </row>
     <row r="15" spans="1:16384" s="9" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
@@ -20127,7 +20133,7 @@
       <c r="S16" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="T16" s="14" t="s">
+      <c r="T16" s="36" t="s">
         <v>369</v>
       </c>
       <c r="U16" s="11" t="s">
@@ -36566,7 +36572,7 @@
       <c r="S17" s="17" t="s">
         <v>371</v>
       </c>
-      <c r="T17" s="14" t="s">
+      <c r="T17" s="36" t="s">
         <v>370</v>
       </c>
       <c r="U17" s="11" t="s">
@@ -53002,8 +53008,12 @@
         <v>367</v>
       </c>
       <c r="R18" s="11"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
+      <c r="S18" s="20" t="s">
+        <v>400</v>
+      </c>
+      <c r="T18" s="36" t="s">
+        <v>399</v>
+      </c>
       <c r="U18" s="11" t="s">
         <v>306</v>
       </c>
@@ -53091,8 +53101,8 @@
       <c r="S19" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="T19" s="42" t="s">
-        <v>383</v>
+      <c r="T19" s="36" t="s">
+        <v>398</v>
       </c>
       <c r="U19" s="11" t="s">
         <v>306</v>
@@ -53146,17 +53156,17 @@
         <v>359</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="27" t="s">
         <v>373</v>
       </c>
       <c r="G20" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="H20" s="20" t="s">
         <v>385</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>386</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -53179,10 +53189,10 @@
       </c>
       <c r="R20" s="11"/>
       <c r="S20" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="T20" s="20" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="U20" s="11" t="s">
         <v>306</v>
@@ -53236,17 +53246,17 @@
         <v>359</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E21" s="27"/>
       <c r="F21" s="27" t="s">
         <v>373</v>
       </c>
       <c r="G21" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="H21" s="20" t="s">
         <v>390</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>391</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
@@ -53269,10 +53279,10 @@
       </c>
       <c r="R21" s="11"/>
       <c r="S21" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="T21" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="U21" s="11" t="s">
         <v>306</v>
@@ -53326,17 +53336,17 @@
         <v>359</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E22" s="27"/>
       <c r="F22" s="27" t="s">
         <v>373</v>
       </c>
       <c r="G22" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="H22" s="20" t="s">
         <v>396</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>397</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
@@ -53359,10 +53369,10 @@
       </c>
       <c r="R22" s="11"/>
       <c r="S22" s="20" t="s">
-        <v>393</v>
-      </c>
-      <c r="T22" s="42" t="s">
-        <v>398</v>
+        <v>392</v>
+      </c>
+      <c r="T22" s="36" t="s">
+        <v>397</v>
       </c>
       <c r="U22" s="11" t="s">
         <v>306</v>
@@ -61198,9 +61208,9 @@
     <hyperlink ref="N19" r:id="rId5" xr:uid="{F9676D2B-6E55-43F9-A3AB-C3875561C5AF}"/>
     <hyperlink ref="N20" r:id="rId6" xr:uid="{ABEA8571-8B4C-4F3F-9B81-73FD94E38FDD}"/>
     <hyperlink ref="N21" r:id="rId7" xr:uid="{FCBE0EFE-5E0C-4FA2-9C02-3FE5F54C1035}"/>
-    <hyperlink ref="T19" r:id="rId8" location="!/video/3802/DXC+Digital+Explorer+-+Understanding+your+clients+digital+challenges+with+DXC+Digital+Explorer" xr:uid="{3B9CA549-F676-4607-A8DC-2F17D2523AFF}"/>
-    <hyperlink ref="T22" r:id="rId9" location="!/video/3801/DXC+Digital+Explorer+-+Trends+Module" xr:uid="{6DC0CD04-BA90-48EC-8820-DB2639AC2F89}"/>
-    <hyperlink ref="N22" r:id="rId10" xr:uid="{80592F68-0159-4CF9-BBEA-604136D3CFF8}"/>
+    <hyperlink ref="T22" r:id="rId8" location="!/video/3801/DXC+Digital+Explorer+-+Trends+Module" xr:uid="{6DC0CD04-BA90-48EC-8820-DB2639AC2F89}"/>
+    <hyperlink ref="N22" r:id="rId9" xr:uid="{80592F68-0159-4CF9-BBEA-604136D3CFF8}"/>
+    <hyperlink ref="T18" r:id="rId10" location="!/video/3831/Presenting+DXC's+Digital+Viewpoint+with+Digital+Explorer" xr:uid="{4F088084-DCC8-4CF3-B1DF-D5E9CF1DED2D}"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.51" top="0.51181102362204722" bottom="0.51181102362204722" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="27" fitToHeight="12" orientation="landscape" r:id="rId11"/>
@@ -62699,15 +62709,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB50381E-D73D-4ABE-8252-380F0F2ED015}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="34ddc890-2bde-4609-998e-0ffc62a4883f"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
